--- a/sheets/Coding Decoded Dynamic Programming SDE sheet.xlsx
+++ b/sheets/Coding Decoded Dynamic Programming SDE sheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="158">
   <si>
     <t xml:space="preserve">Question marked with** are must do before interview </t>
   </si>
@@ -582,12 +582,15 @@
   <si>
     <t>Largest Divisible Subset(LIS)</t>
   </si>
+  <si>
+    <t>r</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -627,12 +630,6 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Roboto"/>
     </font>
     <font>
       <sz val="10"/>
@@ -778,7 +775,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -798,30 +795,29 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -837,20 +833,21 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1069,14 +1066,15 @@
   </sheetPr>
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="70.6328125" customWidth="1"/>
-    <col min="2" max="2" width="54.08984375" customWidth="1"/>
+    <col min="1" max="1" width="34.1796875" customWidth="1"/>
+    <col min="2" max="2" width="26.26953125" customWidth="1"/>
+    <col min="4" max="4" width="34.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
@@ -1100,7 +1098,7 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -1109,15 +1107,17 @@
       <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>157</v>
+      </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -1126,15 +1126,17 @@
       <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>157</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1143,15 +1145,17 @@
       <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>157</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="23" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -1160,15 +1164,17 @@
       <c r="C6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>157</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="22" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1177,15 +1183,17 @@
       <c r="C7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>157</v>
+      </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="23" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -1194,7 +1202,7 @@
       <c r="C8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="33" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="4"/>
@@ -1202,7 +1210,7 @@
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="23" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -1219,7 +1227,7 @@
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="23" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1236,741 +1244,741 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="16" t="s">
+      <c r="C12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="16" t="s">
+      <c r="C13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="16" t="s">
+      <c r="C14" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="16" t="s">
+      <c r="C15" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="16" t="s">
+      <c r="C16" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="16" t="s">
+      <c r="C17" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="16" t="s">
+      <c r="C18" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="16" t="s">
+      <c r="C19" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
     </row>
     <row r="20" spans="1:7" ht="13">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="16" t="s">
+      <c r="C20" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
     </row>
     <row r="21" spans="1:7" ht="13">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="16" t="s">
+      <c r="C21" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
     </row>
     <row r="22" spans="1:7" ht="13">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="16" t="s">
+      <c r="C22" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
     </row>
     <row r="23" spans="1:7" ht="13">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="16" t="s">
+      <c r="C23" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
     </row>
     <row r="24" spans="1:7" ht="13">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="16" t="s">
+      <c r="C24" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
     </row>
     <row r="25" spans="1:7" ht="13">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="16" t="s">
+      <c r="C25" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
     </row>
     <row r="26" spans="1:7" ht="13">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="16" t="s">
+      <c r="C26" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
     </row>
     <row r="27" spans="1:7" ht="13">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="16" t="s">
+      <c r="C27" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
     </row>
     <row r="28" spans="1:7" ht="13">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="16" t="s">
+      <c r="C28" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
     </row>
     <row r="29" spans="1:7" ht="13">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="16" t="s">
+      <c r="C29" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
     </row>
     <row r="30" spans="1:7" ht="13">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="29" t="s">
+      <c r="C30" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
     </row>
     <row r="31" spans="1:7" ht="13">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="16" t="s">
+      <c r="C31" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
     </row>
     <row r="32" spans="1:7" ht="13">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="16" t="s">
+      <c r="C32" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
     </row>
     <row r="33" spans="1:7" ht="13">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="16" t="s">
+      <c r="C33" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
     </row>
     <row r="34" spans="1:7" ht="13">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="16" t="s">
+      <c r="C34" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
     </row>
     <row r="35" spans="1:7" ht="13">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D35" s="16" t="s">
+      <c r="C35" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
     </row>
     <row r="36" spans="1:7" ht="13">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C36" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" s="16" t="s">
+      <c r="C36" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
     </row>
     <row r="37" spans="1:7" ht="13">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C37" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" s="16" t="s">
+      <c r="C37" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
     </row>
     <row r="38" spans="1:7" ht="13">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C38" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D38" s="16" t="s">
+      <c r="C38" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
     </row>
     <row r="40" spans="1:7" ht="13">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="D40" s="33" t="s">
+      <c r="D40" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" spans="1:7" ht="13">
-      <c r="A41" s="31" t="s">
+      <c r="A41" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="B41" s="19" t="s">
+      <c r="B41" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="D41" s="22" t="s">
+      <c r="D41" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
     </row>
     <row r="42" spans="1:7" ht="13">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C42" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D42" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
     </row>
     <row r="43" spans="1:7" ht="13">
-      <c r="A43" s="31" t="s">
+      <c r="A43" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="D43" s="22" t="s">
+      <c r="D43" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
     </row>
     <row r="44" spans="1:7" ht="13">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="B44" s="19" t="s">
+      <c r="B44" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C44" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="D44" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
     </row>
     <row r="45" spans="1:7" ht="13">
-      <c r="A45" s="31" t="s">
+      <c r="A45" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="B45" s="19" t="s">
+      <c r="B45" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="D45" s="22" t="s">
+      <c r="D45" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
     </row>
     <row r="46" spans="1:7" ht="13">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="B46" s="19" t="s">
+      <c r="B46" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C46" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="D46" s="22" t="s">
+      <c r="D46" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
     </row>
     <row r="47" spans="1:7" ht="13">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="D47" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
     </row>
     <row r="48" spans="1:7" ht="13">
-      <c r="A48" s="31" t="s">
+      <c r="A48" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="D48" s="22" t="s">
+      <c r="D48" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
     </row>
     <row r="49" spans="1:7" ht="13">
-      <c r="A49" s="31" t="s">
+      <c r="A49" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="D49" s="22" t="s">
+      <c r="D49" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
     </row>
     <row r="50" spans="1:7" ht="13">
-      <c r="A50" s="31" t="s">
+      <c r="A50" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="B50" s="19" t="s">
+      <c r="B50" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="D50" s="22" t="s">
+      <c r="D50" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
     </row>
     <row r="51" spans="1:7" ht="13">
-      <c r="A51" s="31" t="s">
+      <c r="A51" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="B51" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="D51" s="22" t="s">
+      <c r="D51" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
     </row>
     <row r="52" spans="1:7" ht="13">
-      <c r="A52" s="31" t="s">
+      <c r="A52" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="B52" s="19" t="s">
+      <c r="B52" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C52" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="D52" s="22" t="s">
+      <c r="D52" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
     </row>
     <row r="53" spans="1:7" ht="13">
-      <c r="A53" s="31" t="s">
+      <c r="A53" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="B53" s="19" t="s">
+      <c r="B53" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C53" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="D53" s="22" t="s">
+      <c r="D53" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
     </row>
     <row r="54" spans="1:7" ht="13">
-      <c r="A54" s="31" t="s">
+      <c r="A54" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="B54" s="19" t="s">
+      <c r="B54" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C54" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="D54" s="22" t="s">
+      <c r="D54" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
     </row>
     <row r="55" spans="1:7" ht="13">
-      <c r="A55" s="31" t="s">
+      <c r="A55" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="B55" s="19" t="s">
+      <c r="B55" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C55" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="D55" s="22" t="s">
+      <c r="D55" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
     </row>
   </sheetData>
   <hyperlinks>
